--- a/output.xlsx
+++ b/output.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="17771" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
   <si>
     <t>Senha</t>
   </si>
@@ -39,17 +52,29 @@
   <si>
     <t>12345678</t>
   </si>
+  <si>
+    <t>jean</t>
+  </si>
+  <si>
+    <t>henri</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -57,19 +82,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -92,9 +454,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -102,12 +706,946 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
+    <cellStyle name="Observação" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Saída" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
+    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Bom" xfId="22" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
+    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
+    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
+    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
+    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
+    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="pt-BR" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Tempo para descriptografar a senha: igor!</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="246"/>
+        <c:overlap val="-28"/>
+        <c:axId val="772927705"/>
+        <c:axId val="459803719"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="772927705"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459803719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="459803719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="772927705"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="pt-BR"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200660</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4826000" y="83820"/>
+        <a:ext cx="4826000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,17 +1927,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="3" max="3" width="29.4444444444444" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -863,7 +2407,233 @@
         <v>0.57</v>
       </c>
     </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>6169000</v>
+      </c>
+      <c r="D34">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>9300986</v>
+      </c>
+      <c r="D35">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>10234873</v>
+      </c>
+      <c r="D36">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>10846819</v>
+      </c>
+      <c r="D37">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>10863678</v>
+      </c>
+      <c r="D38">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>11700754</v>
+      </c>
+      <c r="D39">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>12760305</v>
+      </c>
+      <c r="D40">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>11116294</v>
+      </c>
+      <c r="D41">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>304267000</v>
+      </c>
+      <c r="D42">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>456157451</v>
+      </c>
+      <c r="D43">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>508425208</v>
+      </c>
+      <c r="D44">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>531382062</v>
+      </c>
+      <c r="D45">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>540463521</v>
+      </c>
+      <c r="D46">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>558125512</v>
+      </c>
+      <c r="D47">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>562446865</v>
+      </c>
+      <c r="D48">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>592730946</v>
+      </c>
+      <c r="D49">
+        <v>1.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17771" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1634,7 +1634,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4826000" y="83820"/>
+        <a:off x="4292600" y="83820"/>
         <a:ext cx="4826000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1933,16 +1933,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="3" max="3" width="29.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="21.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2629,6 +2629,118 @@
       </c>
       <c r="D49">
         <v>1.11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>123456789</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>987654000</v>
+      </c>
+      <c r="D50">
+        <v>45.31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>123456789</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>1480717093</v>
+      </c>
+      <c r="D51">
+        <v>25.17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>123456789</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>1647348629</v>
+      </c>
+      <c r="D52">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>123456789</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>1730673811</v>
+      </c>
+      <c r="D53">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>123456789</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>1774577193</v>
+      </c>
+      <c r="D54">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>123456789</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>1808781291</v>
+      </c>
+      <c r="D55">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>123456789</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>1840262127</v>
+      </c>
+      <c r="D56">
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>123456789</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>1494072158</v>
+      </c>
+      <c r="D57">
+        <v>7.18</v>
       </c>
     </row>
   </sheetData>
